--- a/Excel_Files/Sounding_With_SODAR.xlsx
+++ b/Excel_Files/Sounding_With_SODAR.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeremybenik/Research_Files/FireFlux_med/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeremybenik/Research_Files/FireFlux_med/Excel_Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5178730-60E0-704E-897B-369CE2C13CA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{058DA7AF-DE77-0D45-A478-DF4AEC5C42E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36120" yWindow="0" windowWidth="34560" windowHeight="21600" xr2:uid="{4FCEF5DD-60E0-B94C-B326-8A910936E66B}"/>
+    <workbookView xWindow="0" yWindow="640" windowWidth="34560" windowHeight="21700" xr2:uid="{4FCEF5DD-60E0-B94C-B326-8A910936E66B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4091,11 +4091,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="input_sounding_1" connectionId="2" xr16:uid="{07C15315-0034-614B-B253-3C32439A01DD}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="input_sounding" connectionId="1" xr16:uid="{A5941537-C585-6E40-A3C1-140278507251}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="input_sounding" connectionId="1" xr16:uid="{A5941537-C585-6E40-A3C1-140278507251}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="input_sounding_1" connectionId="2" xr16:uid="{07C15315-0034-614B-B253-3C32439A01DD}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4397,8 +4397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B37D5447-FF3E-0C46-BC46-807C123FE04D}">
   <dimension ref="A1:AH509"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="Z10" sqref="Z10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4656,7 +4656,7 @@
         <v>39.324644114830846</v>
       </c>
       <c r="AF4">
-        <f t="shared" ref="AF4:AF5" si="3" xml:space="preserve"> AD4 + AE4</f>
+        <f t="shared" ref="AF4:AF6" si="3" xml:space="preserve"> AD4 + AE4</f>
         <v>90</v>
       </c>
     </row>
@@ -4779,6 +4779,28 @@
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
+      <c r="AA6">
+        <v>7.07</v>
+      </c>
+      <c r="AB6">
+        <v>-8.6300000000000008</v>
+      </c>
+      <c r="AC6">
+        <f>SQRT(POWER(AA7,2) + POWER(AB7,2))</f>
+        <v>11.152398592718741</v>
+      </c>
+      <c r="AD6">
+        <f>DEGREES(ACOS(AA6/$AC$6))</f>
+        <v>50.658267728399252</v>
+      </c>
+      <c r="AE6">
+        <f>180 - DEGREES(ACOS(AB6/$AC$6))</f>
+        <v>39.301415120802716</v>
+      </c>
+      <c r="AF6">
+        <f t="shared" si="3"/>
+        <v>89.959682849201968</v>
+      </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A7">
@@ -4824,6 +4846,18 @@
       <c r="U7" s="3">
         <f t="shared" si="2"/>
         <v>50</v>
+      </c>
+      <c r="AA7">
+        <f>COS(AG3) * AC7</f>
+        <v>7.0674273178211955</v>
+      </c>
+      <c r="AB7">
+        <f>COS(AH3) * AC7</f>
+        <v>-8.6271354155472526</v>
+      </c>
+      <c r="AC7">
+        <f>AC4 + 1</f>
+        <v>11.152398592718741</v>
       </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.2">
